--- a/Voot_kids/data/TestDataV2.xlsx
+++ b/Voot_kids/data/TestDataV2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="110">
   <si>
     <t>TCID</t>
   </si>
@@ -478,6 +478,336 @@
   </si>
   <si>
     <t>http://apistg.vootkids.com/app/favourite/v1/list.json?type=items&amp;uId=efcfeef65a124e36aead4c3e75820f8c&amp;profileId=5b4f30776d8d193998edba85&amp;limit=8&amp;offSet=0</t>
+  </si>
+  <si>
+    <t>Verify Sign Up screen UI</t>
+  </si>
+  <si>
+    <t>Verify the functionality of Back arrow in Sign Up screen</t>
+  </si>
+  <si>
+    <t>Verify Email field data acceptance criteria in Sign Up page by giving invalid input</t>
+  </si>
+  <si>
+    <t>Verify Email field data acceptance criteria in Sign Up page by giving already registered email</t>
+  </si>
+  <si>
+    <t>Verify Password field data acceptance criteria in Sign Up page by giving invalid input</t>
+  </si>
+  <si>
+    <t>Verify Password field data acceptance criteria in Sign Up page by keeping field empty</t>
+  </si>
+  <si>
+    <t>Verify the functionality of Eye icon in Password text field</t>
+  </si>
+  <si>
+    <t>Verify Next button functionality(Invalid)</t>
+  </si>
+  <si>
+    <t>Verify Mobile No. field in Sign Up page by giving valid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify country code is autofilled as user enteres mobile no. in the text field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Mobile No. field in Sign up page by giving invalid input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Next button functionality (Valid) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Mobile No. field in Sign Up page by entering already registered Mobile No. </t>
+  </si>
+  <si>
+    <t>Verify Next button functionality (Invalid)</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:04:15 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:05:15 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:05:17 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:05:26 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:05:37 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:06:04 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:10:16 IST 2018</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:10:26 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:10:29 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:11:06 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:11:43 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:12:18 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:12:48 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:12:56 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:13:24 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:13:31 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:14:06 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:14:07 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:15:59 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:16:38 IST 2018</t>
+  </si>
+  <si>
+    <t>'Verify Next button functionality by entering both Email and Mobile No'</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:17:42 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:20:46 IST 2018</t>
+  </si>
+  <si>
+    <t>152: Verify Episode Card Metadata</t>
+  </si>
+  <si>
+    <t>257: Verify Episode Card Metadata</t>
+  </si>
+  <si>
+    <t>153: Verify Read Card Metadata</t>
+  </si>
+  <si>
+    <t>154: Verify Audio Card Metadata</t>
+  </si>
+  <si>
+    <t>256: Horizontal swiping in My Stuff carousal</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:23:40 IST 2018</t>
+  </si>
+  <si>
+    <t>151: Verify Card Type In My Stuff.</t>
+  </si>
+  <si>
+    <t>292: Character show card navigation</t>
+  </si>
+  <si>
+    <t>289: All Characters tray click functionality</t>
+  </si>
+  <si>
+    <t>290: Character show card</t>
+  </si>
+  <si>
+    <t>291: Character show card Metadata</t>
+  </si>
+  <si>
+    <t>293: Verify the availibility of 'See All' Button in All Characters Tray if there are &gt; 8 characters</t>
+  </si>
+  <si>
+    <t>294: Verify 'See All' button if there are 8 characters</t>
+  </si>
+  <si>
+    <t>295: Verify 'See All' button if there are &lt; 8 characters</t>
+  </si>
+  <si>
+    <t>142: Validate the Maximum count of assets in the Masthead Carousel section under all tabs.</t>
+  </si>
+  <si>
+    <t>149: Verify the Display Card Order In Carousal</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:28:07 IST 2018</t>
+  </si>
+  <si>
+    <t>195: Verify the availability of favourites tray when user is not favourited any episode/book/audiobook</t>
+  </si>
+  <si>
+    <t>196: Verify the availibility of favourite icon in show detail page</t>
+  </si>
+  <si>
+    <t>197: Verify the availibility of favourite icon in audio book detail page</t>
+  </si>
+  <si>
+    <t>198: Verify the availibility of favourite icon in episode player</t>
+  </si>
+  <si>
+    <t>155: Horizontal swiping in My Stuff carousal</t>
+  </si>
+  <si>
+    <t>157: Verify user remains in same card after minimize and resuming the app in My Stuff Carousal</t>
+  </si>
+  <si>
+    <t>258: Horizontal swiping in Watch carousal</t>
+  </si>
+  <si>
+    <t>259: Verify user remains in same card after minimize and resuming the app in Watch Carousal</t>
+  </si>
+  <si>
+    <t>260: Verify user remains in same card after minimize and resuming the app in Read Carousal</t>
+  </si>
+  <si>
+    <t>165: Verify the UI of 'Last Viewed' section in My Stuff Tab</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:24:42 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify the favourites selection functionality in the favourites/Preferences screen  by selecting 5 favourites characters/preferences:(Valid)</t>
+  </si>
+  <si>
+    <t>Verify the favourites selection functionality in the favourites/Preferences screen  by selecting less than or equal to 4 favourites characters/preferences:(invalid)</t>
+  </si>
+  <si>
+    <t>Verify the favourites selection functionality in the favourites/Preferences screen by selecting 6 favourites characters/preferences:(Valid)</t>
+  </si>
+  <si>
+    <t>Verify the back button in the favourites/Preferences screen:</t>
+  </si>
+  <si>
+    <t>Verify the back arrow functionality in Create Profile 1st screen:</t>
+  </si>
+  <si>
+    <t>Verify the Name field in Create Profile screen by entering blank space(Invalid):</t>
+  </si>
+  <si>
+    <t>Verify the Name field in Create Profile screen by entering more than or equal to 2 characters:(Valid)</t>
+  </si>
+  <si>
+    <t>Verify the Name field in Create Profile screen by entering spaces between each characters(Valid):</t>
+  </si>
+  <si>
+    <t>Verify the Name field in Create Profile screen by entering spaces between first name and last name(Valid):</t>
+  </si>
+  <si>
+    <t>Verify the click functionality on the DOB field:</t>
+  </si>
+  <si>
+    <t>Verify the DOB field in Create Profile screen by selecting the year 2000(valid):</t>
+  </si>
+  <si>
+    <t>Verify the DOB field in Create Profile screen by selecting the current/today's date(Valid):</t>
+  </si>
+  <si>
+    <t>Verify the Next button functionality without filling the mandatory details in to the Create Profile screen:(Invalid)</t>
+  </si>
+  <si>
+    <t>Verify the Next button functionality after filling all the mandatory fields:</t>
+  </si>
+  <si>
+    <t>Verify the back button in the  2nd screen of Create profile (Avatar selection screen):</t>
+  </si>
+  <si>
+    <t>Verify the Next button functionality in the avatar selection screen:</t>
+  </si>
+  <si>
+    <t>Verify the Let`s Go button functionality in Final(last) screen:</t>
+  </si>
+  <si>
+    <t>Verify the functionality of Create another hyperlink in Final(last) screen:</t>
+  </si>
+  <si>
+    <t>Verify the Functionality of delete profile by clicking on No in pop-up</t>
+  </si>
+  <si>
+    <t>Verify the UI of Create Profile screen:</t>
+  </si>
+  <si>
+    <t>Back arrow should not be displayed in create profile 1st screen</t>
+  </si>
+  <si>
+    <t>User should not be able to select the date 31-12-1999</t>
+  </si>
+  <si>
+    <t>User should not be able to select the year 2019</t>
+  </si>
+  <si>
+    <t>Verify the UI of Avatar selection/Create your buddy screen</t>
+  </si>
+  <si>
+    <t>Verify the UI of Favourites/Preferences screen in the avatar selection screen</t>
+  </si>
+  <si>
+    <t>Verify the UI of Final(last) screen:</t>
+  </si>
+  <si>
+    <t>Verify the functionality of back arrow in Final(last) screen:</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:35:43 IST 2018</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:35:45 IST 2018</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:36:29 IST 2018</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:38:36 IST 2018</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:38:44 IST 2018</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:38:58 IST 2018</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:41:47 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify the UI of Edit Profile screen:</t>
+  </si>
+  <si>
+    <t>Verify the back arrow functionality in Edit Profile screen:</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:43:10 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify Switch Profile page UI:</t>
+  </si>
+  <si>
+    <t>Verify the click functionality of 'Edit Profile Buddy' button:</t>
+  </si>
+  <si>
+    <t>Validate Close icon functionality:</t>
+  </si>
+  <si>
+    <t>Validate Settings button functionality:</t>
+  </si>
+  <si>
+    <t>Validate 'Create new' button functionality:</t>
+  </si>
+  <si>
+    <t>Verify the functionality of switch profile icons:</t>
   </si>
 </sst>
 </file>
@@ -485,10 +815,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1203,7 +1533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1257,6 +1587,651 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,9 +2559,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1888,21 +2863,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.4285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.1428571428571" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.8571428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.8571428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5714285714286" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.8571428571429" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.7142857142857" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.2857142857143" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="26.2857142857143" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.4285714285714" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.2857142857143" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="44.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="29.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="30.7142857142857" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="27.8571428571429" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="18.8571428571429" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="19.5714285714286" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="20.8571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="19.7142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="17.2857142857143" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="26.2857142857143" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="25.4285714285714" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="13.2857142857143" collapsed="true"/>
+    <col min="15" max="16384" style="2" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3179,26 +4154,26 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B46" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B51" r:id="rId2" display="daya123@daya.in&#10;&#10;" tooltip="mailto:daya123@daya.in"/>
-    <hyperlink ref="B63" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B67" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B71" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B75" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B79" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B83" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B88" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B93" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B46" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B51" r:id="rId2" display="daya123@daya.in  " tooltip="mailto:daya123@daya.in"/>
+    <hyperlink ref="B63" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B67" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B71" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B75" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B79" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B83" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B88" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B93" r:id="rId2" display="daya123@daya.in  "/>
     <hyperlink ref="B97" r:id="rId3" display="vinothtest@gmail.com" tooltip="mailto:vinothtest@gmail.com"/>
     <hyperlink ref="B102" r:id="rId3" display="vinothtest@gmail.com" tooltip="mailto:vinothtest@gmail.com"/>
     <hyperlink ref="B106" r:id="rId3" display="vinothtest@gmail.com" tooltip="mailto:vinothtest@gmail.com"/>
     <hyperlink ref="B110" r:id="rId3" display="vinothtest@gmail.com" tooltip="mailto:vinothtest@gmail.com"/>
-    <hyperlink ref="B114" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B118" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B122" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B126" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B130" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
-    <hyperlink ref="B134" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B114" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B118" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B122" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B126" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B130" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B134" r:id="rId2" display="daya123@daya.in  "/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3217,9 +4192,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="103.790476190476" customWidth="1"/>
-    <col min="2" max="2" width="6.59047619047619" customWidth="1"/>
-    <col min="3" max="3" width="27.2857142857143" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="143.20703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.58984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.2890625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4248,6 +5223,931 @@
       </c>
       <c r="C184" s="8" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="99" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B251" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C251" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B252" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C252" s="115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="B253" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C253" s="117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="B254" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C254" s="119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B257" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C257" s="113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B258" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="C258" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="B259" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="C259" s="140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="B260" s="141" t="s">
+        <v>81</v>
+      </c>
+      <c r="C260" s="142" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="B261" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="C261" s="144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="B262" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="C262" s="152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="B264" s="149" t="s">
+        <v>81</v>
+      </c>
+      <c r="C264" s="150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="B265" s="153" t="s">
+        <v>94</v>
+      </c>
+      <c r="C265" s="154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="B266" s="155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C266" s="156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="B267" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C267" s="158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="131" t="s">
+        <v>163</v>
+      </c>
+      <c r="B269" s="159" t="s">
+        <v>81</v>
+      </c>
+      <c r="C269" s="160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="B270" s="166" t="s">
+        <v>81</v>
+      </c>
+      <c r="C270" s="167" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="B271" s="161" t="s">
+        <v>94</v>
+      </c>
+      <c r="C271" s="162" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="B272" s="147" t="s">
+        <v>94</v>
+      </c>
+      <c r="C272" s="148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="163" t="s">
+        <v>188</v>
+      </c>
+      <c r="B273" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="C273" s="165" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="168" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="169" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="170" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="171" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="172" t="s">
+        <v>195</v>
+      </c>
+      <c r="B278" s="173" t="s">
+        <v>196</v>
+      </c>
+      <c r="C278" s="174" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="175" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="176" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="177" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="178" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="179" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="180" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="181" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="182" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="183" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="B288" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="C288" s="186" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="187" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="188" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="189" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="190" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="191" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="192" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="193" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="194" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="196" t="s">
+        <v>218</v>
+      </c>
+      <c r="B298" s="197" t="s">
+        <v>196</v>
+      </c>
+      <c r="C298" s="198" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="199" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="200" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="201" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="202" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="204" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="205" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="206" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="207" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="208" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="209" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="210" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="211" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="212" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="213" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="214" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="215" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="216" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="217" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="218" t="s">
+        <v>239</v>
+      </c>
+      <c r="B318" s="226" t="s">
+        <v>81</v>
+      </c>
+      <c r="C318" s="227" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="219" t="s">
+        <v>240</v>
+      </c>
+      <c r="B319" s="228" t="s">
+        <v>81</v>
+      </c>
+      <c r="C319" s="229" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="220" t="s">
+        <v>241</v>
+      </c>
+      <c r="B320" s="230" t="s">
+        <v>81</v>
+      </c>
+      <c r="C320" s="231" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="221" t="s">
+        <v>242</v>
+      </c>
+      <c r="B321" s="232" t="s">
+        <v>81</v>
+      </c>
+      <c r="C321" s="233" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="222" t="s">
+        <v>243</v>
+      </c>
+      <c r="B322" s="234" t="s">
+        <v>81</v>
+      </c>
+      <c r="C322" s="235" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="223" t="s">
+        <v>244</v>
+      </c>
+      <c r="B323" s="236" t="s">
+        <v>81</v>
+      </c>
+      <c r="C323" s="237" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="224" t="s">
+        <v>245</v>
+      </c>
+      <c r="B324" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="C324" s="239" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="225" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="240" t="s">
+        <v>254</v>
+      </c>
+      <c r="B326" s="242" t="s">
+        <v>81</v>
+      </c>
+      <c r="C326" s="243" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="241" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="244" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="245" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="246" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="247" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="248" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="249" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4267,11 +6167,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="5.28571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="5.28571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4325,10 +6225,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="49.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="14.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="25.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.4285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Voot_kids/data/TestDataV2.xlsx
+++ b/Voot_kids/data/TestDataV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265">
   <si>
     <t>TCID</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>VerifyFavouritesTrayAndIcon</t>
+  </si>
+  <si>
+    <t>searchFunctionalityTest</t>
+  </si>
+  <si>
+    <t>VerifySettingsDeviceScreen</t>
+  </si>
+  <si>
+    <t>VerifySettingsRateUsFeature</t>
+  </si>
+  <si>
+    <t>AudioBookDetailUITest</t>
+  </si>
+  <si>
+    <t>VerifyEpisodesUIFunctionalityTest</t>
   </si>
   <si>
     <t>Email</t>
@@ -339,6 +354,327 @@
     <t>Wed Jul 25 10:10:19 IST 2018</t>
   </si>
   <si>
+    <t>Verify Sign Up screen UI</t>
+  </si>
+  <si>
+    <t>Verify the functionality of Back arrow in Sign Up screen</t>
+  </si>
+  <si>
+    <t>Verify Email field data acceptance criteria in Sign Up page by giving invalid input</t>
+  </si>
+  <si>
+    <t>Verify Email field data acceptance criteria in Sign Up page by giving already registered email</t>
+  </si>
+  <si>
+    <t>Verify Password field data acceptance criteria in Sign Up page by giving invalid input</t>
+  </si>
+  <si>
+    <t>Verify Password field data acceptance criteria in Sign Up page by keeping field empty</t>
+  </si>
+  <si>
+    <t>Verify the functionality of Eye icon in Password text field</t>
+  </si>
+  <si>
+    <t>Verify Next button functionality(Invalid)</t>
+  </si>
+  <si>
+    <t>Verify Mobile No. field in Sign Up page by giving valid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify country code is autofilled as user enteres mobile no. in the text field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Mobile No. field in Sign up page by giving invalid input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Next button functionality (Valid) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Mobile No. field in Sign Up page by entering already registered Mobile No. </t>
+  </si>
+  <si>
+    <t>Verify Next button functionality (Invalid)</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:04:15 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:05:26 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:05:37 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:06:04 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:05:17 IST 2018</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:10:26 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:10:29 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:11:06 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:11:43 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:13:24 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:12:56 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:13:31 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:14:06 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:14:07 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:15:59 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:20:46 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:16:38 IST 2018</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:12:48 IST 2018</t>
+  </si>
+  <si>
+    <t>'Verify Next button functionality by entering both Email and Mobile No'</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:17:42 IST 2018</t>
+  </si>
+  <si>
+    <t>152: Verify Episode Card Metadata</t>
+  </si>
+  <si>
+    <t>257: Verify Episode Card Metadata</t>
+  </si>
+  <si>
+    <t>153: Verify Read Card Metadata</t>
+  </si>
+  <si>
+    <t>154: Verify Audio Card Metadata</t>
+  </si>
+  <si>
+    <t>256: Horizontal swiping in My Stuff carousal</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:23:40 IST 2018</t>
+  </si>
+  <si>
+    <t>151: Verify Card Type In My Stuff.</t>
+  </si>
+  <si>
+    <t>292: Character show card navigation</t>
+  </si>
+  <si>
+    <t>289: All Characters tray click functionality</t>
+  </si>
+  <si>
+    <t>290: Character show card</t>
+  </si>
+  <si>
+    <t>291: Character show card Metadata</t>
+  </si>
+  <si>
+    <t>293: Verify the availibility of 'See All' Button in All Characters Tray if there are &gt; 8 characters</t>
+  </si>
+  <si>
+    <t>294: Verify 'See All' button if there are 8 characters</t>
+  </si>
+  <si>
+    <t>295: Verify 'See All' button if there are &lt; 8 characters</t>
+  </si>
+  <si>
+    <t>142: Validate the Maximum count of assets in the Masthead Carousel section under all tabs.</t>
+  </si>
+  <si>
+    <t>149: Verify the Display Card Order In Carousal</t>
+  </si>
+  <si>
+    <t>Thu Jul 26 20:28:07 IST 2018</t>
+  </si>
+  <si>
+    <t>195: Verify the availability of favourites tray when user is not favourited any episode/book/audiobook</t>
+  </si>
+  <si>
+    <t>196: Verify the availibility of favourite icon in show detail page</t>
+  </si>
+  <si>
+    <t>197: Verify the availibility of favourite icon in audio book detail page</t>
+  </si>
+  <si>
+    <t>198: Verify the availibility of favourite icon in episode player</t>
+  </si>
+  <si>
+    <t>155: Horizontal swiping in My Stuff carousal</t>
+  </si>
+  <si>
+    <t>157: Verify user remains in same card after minimize and resuming the app in My Stuff Carousal</t>
+  </si>
+  <si>
+    <t>258: Horizontal swiping in Watch carousal</t>
+  </si>
+  <si>
+    <t>259: Verify user remains in same card after minimize and resuming the app in Watch Carousal</t>
+  </si>
+  <si>
+    <t>260: Verify user remains in same card after minimize and resuming the app in Read Carousal</t>
+  </si>
+  <si>
+    <t>165: Verify the UI of 'Last Viewed' section in My Stuff Tab</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:24:42 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify the favourites selection functionality in the favourites/Preferences screen  by selecting 5 favourites characters/preferences:(Valid)</t>
+  </si>
+  <si>
+    <t>Verify the favourites selection functionality in the favourites/Preferences screen  by selecting less than or equal to 4 favourites characters/preferences:(invalid)</t>
+  </si>
+  <si>
+    <t>Verify the favourites selection functionality in the favourites/Preferences screen by selecting 6 favourites characters/preferences:(Valid)</t>
+  </si>
+  <si>
+    <t>Verify the back button in the favourites/Preferences screen:</t>
+  </si>
+  <si>
+    <t>Verify the back arrow functionality in Create Profile 1st screen:</t>
+  </si>
+  <si>
+    <t>Verify the Name field in Create Profile screen by entering blank space(Invalid):</t>
+  </si>
+  <si>
+    <t>Verify the Name field in Create Profile screen by entering more than or equal to 2 characters:(Valid)</t>
+  </si>
+  <si>
+    <t>Verify the Name field in Create Profile screen by entering spaces between each characters(Valid):</t>
+  </si>
+  <si>
+    <t>Verify the Name field in Create Profile screen by entering spaces between first name and last name(Valid):</t>
+  </si>
+  <si>
+    <t>Verify the click functionality on the DOB field:</t>
+  </si>
+  <si>
+    <t>Verify the DOB field in Create Profile screen by selecting the year 2000(valid):</t>
+  </si>
+  <si>
+    <t>Verify the DOB field in Create Profile screen by selecting the current/today's date(Valid):</t>
+  </si>
+  <si>
+    <t>Verify the Next button functionality without filling the mandatory details in to the Create Profile screen:(Invalid)</t>
+  </si>
+  <si>
+    <t>Verify the Next button functionality after filling all the mandatory fields:</t>
+  </si>
+  <si>
+    <t>Verify the back button in the  2nd screen of Create profile (Avatar selection screen):</t>
+  </si>
+  <si>
+    <t>Verify the Next button functionality in the avatar selection screen:</t>
+  </si>
+  <si>
+    <t>Verify the Let`s Go button functionality in Final(last) screen:</t>
+  </si>
+  <si>
+    <t>Verify the functionality of Create another hyperlink in Final(last) screen:</t>
+  </si>
+  <si>
+    <t>Verify the Functionality of delete profile by clicking on No in pop-up</t>
+  </si>
+  <si>
+    <t>Verify the UI of Create Profile screen:</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:35:43 IST 2018</t>
+  </si>
+  <si>
+    <t>Back arrow should not be displayed in create profile 1st screen</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:35:45 IST 2018</t>
+  </si>
+  <si>
+    <t>User should not be able to select the date 31-12-1999</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:36:29 IST 2018</t>
+  </si>
+  <si>
+    <t>User should not be able to select the year 2019</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:38:36 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify the UI of Avatar selection/Create your buddy screen</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:38:44 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify the UI of Favourites/Preferences screen in the avatar selection screen</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:38:58 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify the UI of Final(last) screen:</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:41:47 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify the functionality of back arrow in Final(last) screen:</t>
+  </si>
+  <si>
+    <t>Verify the UI of Edit Profile screen:</t>
+  </si>
+  <si>
+    <t>Fri Jul 27 03:43:10 IST 2018</t>
+  </si>
+  <si>
+    <t>Verify the back arrow functionality in Edit Profile screen:</t>
+  </si>
+  <si>
+    <t>Verify Switch Profile page UI:</t>
+  </si>
+  <si>
+    <t>Verify the click functionality of 'Edit Profile Buddy' button:</t>
+  </si>
+  <si>
+    <t>Validate Close icon functionality:</t>
+  </si>
+  <si>
+    <t>Validate Settings button functionality:</t>
+  </si>
+  <si>
+    <t>Validate 'Create new' button functionality:</t>
+  </si>
+  <si>
+    <t>Verify the functionality of switch profile icons:</t>
+  </si>
+  <si>
     <t>SectionName</t>
   </si>
   <si>
@@ -478,336 +814,6 @@
   </si>
   <si>
     <t>http://apistg.vootkids.com/app/favourite/v1/list.json?type=items&amp;uId=efcfeef65a124e36aead4c3e75820f8c&amp;profileId=5b4f30776d8d193998edba85&amp;limit=8&amp;offSet=0</t>
-  </si>
-  <si>
-    <t>Verify Sign Up screen UI</t>
-  </si>
-  <si>
-    <t>Verify the functionality of Back arrow in Sign Up screen</t>
-  </si>
-  <si>
-    <t>Verify Email field data acceptance criteria in Sign Up page by giving invalid input</t>
-  </si>
-  <si>
-    <t>Verify Email field data acceptance criteria in Sign Up page by giving already registered email</t>
-  </si>
-  <si>
-    <t>Verify Password field data acceptance criteria in Sign Up page by giving invalid input</t>
-  </si>
-  <si>
-    <t>Verify Password field data acceptance criteria in Sign Up page by keeping field empty</t>
-  </si>
-  <si>
-    <t>Verify the functionality of Eye icon in Password text field</t>
-  </si>
-  <si>
-    <t>Verify Next button functionality(Invalid)</t>
-  </si>
-  <si>
-    <t>Verify Mobile No. field in Sign Up page by giving valid input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify country code is autofilled as user enteres mobile no. in the text field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Mobile No. field in Sign up page by giving invalid input </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Next button functionality (Valid) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Mobile No. field in Sign Up page by entering already registered Mobile No. </t>
-  </si>
-  <si>
-    <t>Verify Next button functionality (Invalid)</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:04:15 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:05:15 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:05:17 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:05:26 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:05:37 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:06:04 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:10:16 IST 2018</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:10:26 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:10:29 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:11:06 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:11:43 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:12:18 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:12:48 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:12:56 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:13:24 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:13:31 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:14:06 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:14:07 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:15:59 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:16:38 IST 2018</t>
-  </si>
-  <si>
-    <t>'Verify Next button functionality by entering both Email and Mobile No'</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:17:42 IST 2018</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:20:46 IST 2018</t>
-  </si>
-  <si>
-    <t>152: Verify Episode Card Metadata</t>
-  </si>
-  <si>
-    <t>257: Verify Episode Card Metadata</t>
-  </si>
-  <si>
-    <t>153: Verify Read Card Metadata</t>
-  </si>
-  <si>
-    <t>154: Verify Audio Card Metadata</t>
-  </si>
-  <si>
-    <t>256: Horizontal swiping in My Stuff carousal</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:23:40 IST 2018</t>
-  </si>
-  <si>
-    <t>151: Verify Card Type In My Stuff.</t>
-  </si>
-  <si>
-    <t>292: Character show card navigation</t>
-  </si>
-  <si>
-    <t>289: All Characters tray click functionality</t>
-  </si>
-  <si>
-    <t>290: Character show card</t>
-  </si>
-  <si>
-    <t>291: Character show card Metadata</t>
-  </si>
-  <si>
-    <t>293: Verify the availibility of 'See All' Button in All Characters Tray if there are &gt; 8 characters</t>
-  </si>
-  <si>
-    <t>294: Verify 'See All' button if there are 8 characters</t>
-  </si>
-  <si>
-    <t>295: Verify 'See All' button if there are &lt; 8 characters</t>
-  </si>
-  <si>
-    <t>142: Validate the Maximum count of assets in the Masthead Carousel section under all tabs.</t>
-  </si>
-  <si>
-    <t>149: Verify the Display Card Order In Carousal</t>
-  </si>
-  <si>
-    <t>Thu Jul 26 20:28:07 IST 2018</t>
-  </si>
-  <si>
-    <t>195: Verify the availability of favourites tray when user is not favourited any episode/book/audiobook</t>
-  </si>
-  <si>
-    <t>196: Verify the availibility of favourite icon in show detail page</t>
-  </si>
-  <si>
-    <t>197: Verify the availibility of favourite icon in audio book detail page</t>
-  </si>
-  <si>
-    <t>198: Verify the availibility of favourite icon in episode player</t>
-  </si>
-  <si>
-    <t>155: Horizontal swiping in My Stuff carousal</t>
-  </si>
-  <si>
-    <t>157: Verify user remains in same card after minimize and resuming the app in My Stuff Carousal</t>
-  </si>
-  <si>
-    <t>258: Horizontal swiping in Watch carousal</t>
-  </si>
-  <si>
-    <t>259: Verify user remains in same card after minimize and resuming the app in Watch Carousal</t>
-  </si>
-  <si>
-    <t>260: Verify user remains in same card after minimize and resuming the app in Read Carousal</t>
-  </si>
-  <si>
-    <t>165: Verify the UI of 'Last Viewed' section in My Stuff Tab</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:24:42 IST 2018</t>
-  </si>
-  <si>
-    <t>Verify the favourites selection functionality in the favourites/Preferences screen  by selecting 5 favourites characters/preferences:(Valid)</t>
-  </si>
-  <si>
-    <t>Verify the favourites selection functionality in the favourites/Preferences screen  by selecting less than or equal to 4 favourites characters/preferences:(invalid)</t>
-  </si>
-  <si>
-    <t>Verify the favourites selection functionality in the favourites/Preferences screen by selecting 6 favourites characters/preferences:(Valid)</t>
-  </si>
-  <si>
-    <t>Verify the back button in the favourites/Preferences screen:</t>
-  </si>
-  <si>
-    <t>Verify the back arrow functionality in Create Profile 1st screen:</t>
-  </si>
-  <si>
-    <t>Verify the Name field in Create Profile screen by entering blank space(Invalid):</t>
-  </si>
-  <si>
-    <t>Verify the Name field in Create Profile screen by entering more than or equal to 2 characters:(Valid)</t>
-  </si>
-  <si>
-    <t>Verify the Name field in Create Profile screen by entering spaces between each characters(Valid):</t>
-  </si>
-  <si>
-    <t>Verify the Name field in Create Profile screen by entering spaces between first name and last name(Valid):</t>
-  </si>
-  <si>
-    <t>Verify the click functionality on the DOB field:</t>
-  </si>
-  <si>
-    <t>Verify the DOB field in Create Profile screen by selecting the year 2000(valid):</t>
-  </si>
-  <si>
-    <t>Verify the DOB field in Create Profile screen by selecting the current/today's date(Valid):</t>
-  </si>
-  <si>
-    <t>Verify the Next button functionality without filling the mandatory details in to the Create Profile screen:(Invalid)</t>
-  </si>
-  <si>
-    <t>Verify the Next button functionality after filling all the mandatory fields:</t>
-  </si>
-  <si>
-    <t>Verify the back button in the  2nd screen of Create profile (Avatar selection screen):</t>
-  </si>
-  <si>
-    <t>Verify the Next button functionality in the avatar selection screen:</t>
-  </si>
-  <si>
-    <t>Verify the Let`s Go button functionality in Final(last) screen:</t>
-  </si>
-  <si>
-    <t>Verify the functionality of Create another hyperlink in Final(last) screen:</t>
-  </si>
-  <si>
-    <t>Verify the Functionality of delete profile by clicking on No in pop-up</t>
-  </si>
-  <si>
-    <t>Verify the UI of Create Profile screen:</t>
-  </si>
-  <si>
-    <t>Back arrow should not be displayed in create profile 1st screen</t>
-  </si>
-  <si>
-    <t>User should not be able to select the date 31-12-1999</t>
-  </si>
-  <si>
-    <t>User should not be able to select the year 2019</t>
-  </si>
-  <si>
-    <t>Verify the UI of Avatar selection/Create your buddy screen</t>
-  </si>
-  <si>
-    <t>Verify the UI of Favourites/Preferences screen in the avatar selection screen</t>
-  </si>
-  <si>
-    <t>Verify the UI of Final(last) screen:</t>
-  </si>
-  <si>
-    <t>Verify the functionality of back arrow in Final(last) screen:</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:35:43 IST 2018</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:35:45 IST 2018</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:36:29 IST 2018</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:38:36 IST 2018</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:38:44 IST 2018</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:38:58 IST 2018</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:41:47 IST 2018</t>
-  </si>
-  <si>
-    <t>Verify the UI of Edit Profile screen:</t>
-  </si>
-  <si>
-    <t>Verify the back arrow functionality in Edit Profile screen:</t>
-  </si>
-  <si>
-    <t>Fri Jul 27 03:43:10 IST 2018</t>
-  </si>
-  <si>
-    <t>Verify Switch Profile page UI:</t>
-  </si>
-  <si>
-    <t>Verify the click functionality of 'Edit Profile Buddy' button:</t>
-  </si>
-  <si>
-    <t>Validate Close icon functionality:</t>
-  </si>
-  <si>
-    <t>Validate Settings button functionality:</t>
-  </si>
-  <si>
-    <t>Validate 'Create new' button functionality:</t>
-  </si>
-  <si>
-    <t>Verify the functionality of switch profile icons:</t>
   </si>
 </sst>
 </file>
@@ -815,12 +821,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +883,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,13 +904,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -906,7 +911,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,85 +942,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1026,8 +963,83 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,49 +1072,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,13 +1120,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1168,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,61 +1222,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,25 +1258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,30 +1308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1329,7 +1323,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,6 +1343,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1360,15 +1363,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,16 +1381,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1408,38 +1426,38 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1448,92 +1466,92 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1563,675 +1581,43 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2553,22 +1939,22 @@
   <sheetPr/>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.1428571428571" collapsed="true"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2828,20 +2214,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="32"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="32"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="32"/>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="33"/>
+      <c r="A54" s="38"/>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2"/>
@@ -2857,27 +2271,27 @@
   <sheetPr/>
   <dimension ref="A1:DF295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="44.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="29.1428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="30.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="27.8571428571429" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="18.8571428571429" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="19.5714285714286" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="20.8571428571429" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="19.7142857142857" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="17.2857142857143" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="2" width="26.2857142857143" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="2" width="25.4285714285714" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="2" width="13.2857142857143" collapsed="true"/>
-    <col min="15" max="16384" style="2" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="44.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.1428571428571" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.8571428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.8571428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5714285714286" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.8571428571429" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.2857142857143" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="26.2857142857143" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.4285714285714" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2890,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2901,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2920,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2931,10 +2345,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2947,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2958,10 +2372,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2974,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2985,10 +2399,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -3001,10 +2415,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:3">
@@ -3012,10 +2426,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -3028,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3039,10 +2453,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -3055,10 +2469,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3066,10 +2480,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -3082,10 +2496,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3093,10 +2507,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -3112,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3123,10 +2537,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3139,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3150,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -3166,10 +2580,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:3">
@@ -3177,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3195,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:3">
@@ -3206,10 +2620,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3266,10 +2680,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
@@ -3277,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" customHeight="1"/>
@@ -3296,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
@@ -3307,10 +2721,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" customHeight="1"/>
@@ -3326,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:3">
@@ -3337,10 +2751,10 @@
         <v>3</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" customHeight="1"/>
@@ -3356,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
@@ -3367,10 +2781,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" customHeight="1"/>
@@ -3386,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:3">
@@ -3397,10 +2811,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" customHeight="1"/>
@@ -3416,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -3427,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" customHeight="1"/>
@@ -3447,10 +2861,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" customHeight="1" spans="1:3">
@@ -3458,10 +2872,10 @@
         <v>3</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" customHeight="1"/>
@@ -3478,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" customHeight="1" spans="1:3">
@@ -3489,10 +2903,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" customHeight="1"/>
@@ -3506,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" customFormat="1" customHeight="1" spans="1:3">
@@ -3517,10 +2931,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" customFormat="1" customHeight="1"/>
@@ -3535,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" customFormat="1" customHeight="1" spans="1:3">
@@ -3546,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" customFormat="1" customHeight="1"/>
@@ -3563,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" customFormat="1" customHeight="1" spans="1:3">
@@ -3574,10 +2988,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" customFormat="1" customHeight="1"/>
@@ -3591,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" customFormat="1" customHeight="1" spans="1:3">
@@ -3602,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" customHeight="1"/>
@@ -3621,10 +3035,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:3">
@@ -3632,10 +3046,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" customHeight="1"/>
@@ -3651,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:3">
@@ -3662,10 +3076,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" customHeight="1"/>
@@ -3681,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:3">
@@ -3692,10 +3106,10 @@
         <v>3</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" customHeight="1"/>
@@ -3711,10 +3125,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:3">
@@ -3722,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" customHeight="1"/>
@@ -3739,10 +3153,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:3">
@@ -3750,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" customHeight="1"/>
@@ -3767,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:3">
@@ -3778,35 +3192,1027 @@
         <v>3</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" customHeight="1"/>
     <row r="136" customHeight="1"/>
-    <row r="137" customHeight="1"/>
-    <row r="138" customHeight="1"/>
-    <row r="139" customHeight="1"/>
+    <row r="137" s="2" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A137" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A138" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" s="2" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A139" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="140" customHeight="1"/>
-    <row r="141" customHeight="1"/>
-    <row r="142" customHeight="1"/>
-    <row r="143" customHeight="1"/>
+    <row r="141" customHeight="1" spans="1:3">
+      <c r="A141" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:3">
+      <c r="A142" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:3">
+      <c r="A143" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="144" customHeight="1"/>
-    <row r="145" customHeight="1"/>
-    <row r="146" customHeight="1"/>
-    <row r="147" customHeight="1"/>
+    <row r="145" customHeight="1" spans="1:3">
+      <c r="A145" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:3">
+      <c r="A146" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:3">
+      <c r="A147" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="148" customHeight="1"/>
     <row r="149" customHeight="1"/>
-    <row r="150" customHeight="1"/>
-    <row r="151" customHeight="1"/>
-    <row r="152" customHeight="1"/>
-    <row r="153" customHeight="1"/>
-    <row r="154" customHeight="1"/>
-    <row r="155" customHeight="1"/>
-    <row r="156" customHeight="1"/>
-    <row r="157" customHeight="1"/>
+    <row r="150" customHeight="1" spans="1:110">
+      <c r="A150" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="20"/>
+      <c r="O150" s="20"/>
+      <c r="P150" s="20"/>
+      <c r="Q150" s="20"/>
+      <c r="R150" s="20"/>
+      <c r="S150" s="20"/>
+      <c r="T150" s="20"/>
+      <c r="U150" s="20"/>
+      <c r="V150" s="20"/>
+      <c r="W150" s="20"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
+      <c r="AA150" s="20"/>
+      <c r="AB150" s="20"/>
+      <c r="AC150" s="20"/>
+      <c r="AD150" s="20"/>
+      <c r="AE150" s="20"/>
+      <c r="AF150" s="20"/>
+      <c r="AG150" s="20"/>
+      <c r="AH150" s="20"/>
+      <c r="AI150" s="20"/>
+      <c r="AJ150" s="20"/>
+      <c r="AK150" s="20"/>
+      <c r="AL150" s="20"/>
+      <c r="AM150" s="20"/>
+      <c r="AN150" s="20"/>
+      <c r="AO150" s="20"/>
+      <c r="AP150" s="20"/>
+      <c r="AQ150" s="20"/>
+      <c r="AR150" s="20"/>
+      <c r="AS150" s="20"/>
+      <c r="AT150" s="20"/>
+      <c r="AU150" s="20"/>
+      <c r="AV150" s="20"/>
+      <c r="AW150" s="20"/>
+      <c r="AX150" s="20"/>
+      <c r="AY150" s="20"/>
+      <c r="AZ150" s="20"/>
+      <c r="BA150" s="20"/>
+      <c r="BB150" s="20"/>
+      <c r="BC150" s="20"/>
+      <c r="BD150" s="20"/>
+      <c r="BE150" s="20"/>
+      <c r="BF150" s="20"/>
+      <c r="BG150" s="20"/>
+      <c r="BH150" s="20"/>
+      <c r="BI150" s="20"/>
+      <c r="BJ150" s="20"/>
+      <c r="BK150" s="20"/>
+      <c r="BL150" s="20"/>
+      <c r="BM150" s="20"/>
+      <c r="BN150" s="20"/>
+      <c r="BO150" s="20"/>
+      <c r="BP150" s="20"/>
+      <c r="BQ150" s="20"/>
+      <c r="BR150" s="20"/>
+      <c r="BS150" s="20"/>
+      <c r="BT150" s="20"/>
+      <c r="BU150" s="20"/>
+      <c r="BV150" s="20"/>
+      <c r="BW150" s="20"/>
+      <c r="BX150" s="20"/>
+      <c r="BY150" s="20"/>
+      <c r="BZ150" s="20"/>
+      <c r="CA150" s="20"/>
+      <c r="CB150" s="20"/>
+      <c r="CC150" s="20"/>
+      <c r="CD150" s="20"/>
+      <c r="CE150" s="20"/>
+      <c r="CF150" s="20"/>
+      <c r="CG150" s="20"/>
+      <c r="CH150" s="20"/>
+      <c r="CI150" s="20"/>
+      <c r="CJ150" s="20"/>
+      <c r="CK150" s="20"/>
+      <c r="CL150" s="20"/>
+      <c r="CM150" s="20"/>
+      <c r="CN150" s="20"/>
+      <c r="CO150" s="20"/>
+      <c r="CP150" s="20"/>
+      <c r="CQ150" s="20"/>
+      <c r="CR150" s="20"/>
+      <c r="CS150" s="20"/>
+      <c r="CT150" s="20"/>
+      <c r="CU150" s="20"/>
+      <c r="CV150" s="20"/>
+      <c r="CW150" s="20"/>
+      <c r="CX150" s="20"/>
+      <c r="CY150" s="20"/>
+      <c r="CZ150" s="20"/>
+      <c r="DA150" s="20"/>
+      <c r="DB150" s="20"/>
+      <c r="DC150" s="20"/>
+      <c r="DD150" s="20"/>
+      <c r="DE150" s="20"/>
+      <c r="DF150" s="20"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:110">
+      <c r="A151" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="20"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="20"/>
+      <c r="R151" s="20"/>
+      <c r="S151" s="20"/>
+      <c r="T151" s="20"/>
+      <c r="U151" s="20"/>
+      <c r="V151" s="20"/>
+      <c r="W151" s="20"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
+      <c r="AA151" s="20"/>
+      <c r="AB151" s="20"/>
+      <c r="AC151" s="20"/>
+      <c r="AD151" s="20"/>
+      <c r="AE151" s="20"/>
+      <c r="AF151" s="20"/>
+      <c r="AG151" s="20"/>
+      <c r="AH151" s="20"/>
+      <c r="AI151" s="20"/>
+      <c r="AJ151" s="20"/>
+      <c r="AK151" s="20"/>
+      <c r="AL151" s="20"/>
+      <c r="AM151" s="20"/>
+      <c r="AN151" s="20"/>
+      <c r="AO151" s="20"/>
+      <c r="AP151" s="20"/>
+      <c r="AQ151" s="20"/>
+      <c r="AR151" s="20"/>
+      <c r="AS151" s="20"/>
+      <c r="AT151" s="20"/>
+      <c r="AU151" s="20"/>
+      <c r="AV151" s="20"/>
+      <c r="AW151" s="20"/>
+      <c r="AX151" s="20"/>
+      <c r="AY151" s="20"/>
+      <c r="AZ151" s="20"/>
+      <c r="BA151" s="20"/>
+      <c r="BB151" s="20"/>
+      <c r="BC151" s="20"/>
+      <c r="BD151" s="20"/>
+      <c r="BE151" s="20"/>
+      <c r="BF151" s="20"/>
+      <c r="BG151" s="20"/>
+      <c r="BH151" s="20"/>
+      <c r="BI151" s="20"/>
+      <c r="BJ151" s="20"/>
+      <c r="BK151" s="20"/>
+      <c r="BL151" s="20"/>
+      <c r="BM151" s="20"/>
+      <c r="BN151" s="20"/>
+      <c r="BO151" s="20"/>
+      <c r="BP151" s="20"/>
+      <c r="BQ151" s="20"/>
+      <c r="BR151" s="20"/>
+      <c r="BS151" s="20"/>
+      <c r="BT151" s="20"/>
+      <c r="BU151" s="20"/>
+      <c r="BV151" s="20"/>
+      <c r="BW151" s="20"/>
+      <c r="BX151" s="20"/>
+      <c r="BY151" s="20"/>
+      <c r="BZ151" s="20"/>
+      <c r="CA151" s="20"/>
+      <c r="CB151" s="20"/>
+      <c r="CC151" s="20"/>
+      <c r="CD151" s="20"/>
+      <c r="CE151" s="20"/>
+      <c r="CF151" s="20"/>
+      <c r="CG151" s="20"/>
+      <c r="CH151" s="20"/>
+      <c r="CI151" s="20"/>
+      <c r="CJ151" s="20"/>
+      <c r="CK151" s="20"/>
+      <c r="CL151" s="20"/>
+      <c r="CM151" s="20"/>
+      <c r="CN151" s="20"/>
+      <c r="CO151" s="20"/>
+      <c r="CP151" s="20"/>
+      <c r="CQ151" s="20"/>
+      <c r="CR151" s="20"/>
+      <c r="CS151" s="20"/>
+      <c r="CT151" s="20"/>
+      <c r="CU151" s="20"/>
+      <c r="CV151" s="20"/>
+      <c r="CW151" s="20"/>
+      <c r="CX151" s="20"/>
+      <c r="CY151" s="20"/>
+      <c r="CZ151" s="20"/>
+      <c r="DA151" s="20"/>
+      <c r="DB151" s="20"/>
+      <c r="DC151" s="20"/>
+      <c r="DD151" s="20"/>
+      <c r="DE151" s="20"/>
+      <c r="DF151" s="20"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:110">
+      <c r="A152" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="20"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="20"/>
+      <c r="R152" s="20"/>
+      <c r="S152" s="20"/>
+      <c r="T152" s="20"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="20"/>
+      <c r="W152" s="20"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
+      <c r="Z152" s="20"/>
+      <c r="AA152" s="20"/>
+      <c r="AB152" s="20"/>
+      <c r="AC152" s="20"/>
+      <c r="AD152" s="20"/>
+      <c r="AE152" s="20"/>
+      <c r="AF152" s="20"/>
+      <c r="AG152" s="20"/>
+      <c r="AH152" s="20"/>
+      <c r="AI152" s="20"/>
+      <c r="AJ152" s="20"/>
+      <c r="AK152" s="20"/>
+      <c r="AL152" s="20"/>
+      <c r="AM152" s="20"/>
+      <c r="AN152" s="20"/>
+      <c r="AO152" s="20"/>
+      <c r="AP152" s="20"/>
+      <c r="AQ152" s="20"/>
+      <c r="AR152" s="20"/>
+      <c r="AS152" s="20"/>
+      <c r="AT152" s="20"/>
+      <c r="AU152" s="20"/>
+      <c r="AV152" s="20"/>
+      <c r="AW152" s="20"/>
+      <c r="AX152" s="20"/>
+      <c r="AY152" s="20"/>
+      <c r="AZ152" s="20"/>
+      <c r="BA152" s="20"/>
+      <c r="BB152" s="20"/>
+      <c r="BC152" s="20"/>
+      <c r="BD152" s="20"/>
+      <c r="BE152" s="20"/>
+      <c r="BF152" s="20"/>
+      <c r="BG152" s="20"/>
+      <c r="BH152" s="20"/>
+      <c r="BI152" s="20"/>
+      <c r="BJ152" s="20"/>
+      <c r="BK152" s="20"/>
+      <c r="BL152" s="20"/>
+      <c r="BM152" s="20"/>
+      <c r="BN152" s="20"/>
+      <c r="BO152" s="20"/>
+      <c r="BP152" s="20"/>
+      <c r="BQ152" s="20"/>
+      <c r="BR152" s="20"/>
+      <c r="BS152" s="20"/>
+      <c r="BT152" s="20"/>
+      <c r="BU152" s="20"/>
+      <c r="BV152" s="20"/>
+      <c r="BW152" s="20"/>
+      <c r="BX152" s="20"/>
+      <c r="BY152" s="20"/>
+      <c r="BZ152" s="20"/>
+      <c r="CA152" s="20"/>
+      <c r="CB152" s="20"/>
+      <c r="CC152" s="20"/>
+      <c r="CD152" s="20"/>
+      <c r="CE152" s="20"/>
+      <c r="CF152" s="20"/>
+      <c r="CG152" s="20"/>
+      <c r="CH152" s="20"/>
+      <c r="CI152" s="20"/>
+      <c r="CJ152" s="20"/>
+      <c r="CK152" s="20"/>
+      <c r="CL152" s="20"/>
+      <c r="CM152" s="20"/>
+      <c r="CN152" s="20"/>
+      <c r="CO152" s="20"/>
+      <c r="CP152" s="20"/>
+      <c r="CQ152" s="20"/>
+      <c r="CR152" s="20"/>
+      <c r="CS152" s="20"/>
+      <c r="CT152" s="20"/>
+      <c r="CU152" s="20"/>
+      <c r="CV152" s="20"/>
+      <c r="CW152" s="20"/>
+      <c r="CX152" s="20"/>
+      <c r="CY152" s="20"/>
+      <c r="CZ152" s="20"/>
+      <c r="DA152" s="20"/>
+      <c r="DB152" s="20"/>
+      <c r="DC152" s="20"/>
+      <c r="DD152" s="20"/>
+      <c r="DE152" s="20"/>
+      <c r="DF152" s="20"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:110">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="20"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="20"/>
+      <c r="T153" s="20"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
+      <c r="AA153" s="20"/>
+      <c r="AB153" s="20"/>
+      <c r="AC153" s="20"/>
+      <c r="AD153" s="20"/>
+      <c r="AE153" s="20"/>
+      <c r="AF153" s="20"/>
+      <c r="AG153" s="20"/>
+      <c r="AH153" s="20"/>
+      <c r="AI153" s="20"/>
+      <c r="AJ153" s="20"/>
+      <c r="AK153" s="20"/>
+      <c r="AL153" s="20"/>
+      <c r="AM153" s="20"/>
+      <c r="AN153" s="20"/>
+      <c r="AO153" s="20"/>
+      <c r="AP153" s="20"/>
+      <c r="AQ153" s="20"/>
+      <c r="AR153" s="20"/>
+      <c r="AS153" s="20"/>
+      <c r="AT153" s="20"/>
+      <c r="AU153" s="20"/>
+      <c r="AV153" s="20"/>
+      <c r="AW153" s="20"/>
+      <c r="AX153" s="20"/>
+      <c r="AY153" s="20"/>
+      <c r="AZ153" s="20"/>
+      <c r="BA153" s="20"/>
+      <c r="BB153" s="20"/>
+      <c r="BC153" s="20"/>
+      <c r="BD153" s="20"/>
+      <c r="BE153" s="20"/>
+      <c r="BF153" s="20"/>
+      <c r="BG153" s="20"/>
+      <c r="BH153" s="20"/>
+      <c r="BI153" s="20"/>
+      <c r="BJ153" s="20"/>
+      <c r="BK153" s="20"/>
+      <c r="BL153" s="20"/>
+      <c r="BM153" s="20"/>
+      <c r="BN153" s="20"/>
+      <c r="BO153" s="20"/>
+      <c r="BP153" s="20"/>
+      <c r="BQ153" s="20"/>
+      <c r="BR153" s="20"/>
+      <c r="BS153" s="20"/>
+      <c r="BT153" s="20"/>
+      <c r="BU153" s="20"/>
+      <c r="BV153" s="20"/>
+      <c r="BW153" s="20"/>
+      <c r="BX153" s="20"/>
+      <c r="BY153" s="20"/>
+      <c r="BZ153" s="20"/>
+      <c r="CA153" s="20"/>
+      <c r="CB153" s="20"/>
+      <c r="CC153" s="20"/>
+      <c r="CD153" s="20"/>
+      <c r="CE153" s="20"/>
+      <c r="CF153" s="20"/>
+      <c r="CG153" s="20"/>
+      <c r="CH153" s="20"/>
+      <c r="CI153" s="20"/>
+      <c r="CJ153" s="20"/>
+      <c r="CK153" s="20"/>
+      <c r="CL153" s="20"/>
+      <c r="CM153" s="20"/>
+      <c r="CN153" s="20"/>
+      <c r="CO153" s="20"/>
+      <c r="CP153" s="20"/>
+      <c r="CQ153" s="20"/>
+      <c r="CR153" s="20"/>
+      <c r="CS153" s="20"/>
+      <c r="CT153" s="20"/>
+      <c r="CU153" s="20"/>
+      <c r="CV153" s="20"/>
+      <c r="CW153" s="20"/>
+      <c r="CX153" s="20"/>
+      <c r="CY153" s="20"/>
+      <c r="CZ153" s="20"/>
+      <c r="DA153" s="20"/>
+      <c r="DB153" s="20"/>
+      <c r="DC153" s="20"/>
+      <c r="DD153" s="20"/>
+      <c r="DE153" s="20"/>
+      <c r="DF153" s="20"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:110">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="20"/>
+      <c r="T154" s="20"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
+      <c r="AA154" s="20"/>
+      <c r="AB154" s="20"/>
+      <c r="AC154" s="20"/>
+      <c r="AD154" s="20"/>
+      <c r="AE154" s="20"/>
+      <c r="AF154" s="20"/>
+      <c r="AG154" s="20"/>
+      <c r="AH154" s="20"/>
+      <c r="AI154" s="20"/>
+      <c r="AJ154" s="20"/>
+      <c r="AK154" s="20"/>
+      <c r="AL154" s="20"/>
+      <c r="AM154" s="20"/>
+      <c r="AN154" s="20"/>
+      <c r="AO154" s="20"/>
+      <c r="AP154" s="20"/>
+      <c r="AQ154" s="20"/>
+      <c r="AR154" s="20"/>
+      <c r="AS154" s="20"/>
+      <c r="AT154" s="20"/>
+      <c r="AU154" s="20"/>
+      <c r="AV154" s="20"/>
+      <c r="AW154" s="20"/>
+      <c r="AX154" s="20"/>
+      <c r="AY154" s="20"/>
+      <c r="AZ154" s="20"/>
+      <c r="BA154" s="20"/>
+      <c r="BB154" s="20"/>
+      <c r="BC154" s="20"/>
+      <c r="BD154" s="20"/>
+      <c r="BE154" s="20"/>
+      <c r="BF154" s="20"/>
+      <c r="BG154" s="20"/>
+      <c r="BH154" s="20"/>
+      <c r="BI154" s="20"/>
+      <c r="BJ154" s="20"/>
+      <c r="BK154" s="20"/>
+      <c r="BL154" s="20"/>
+      <c r="BM154" s="20"/>
+      <c r="BN154" s="20"/>
+      <c r="BO154" s="20"/>
+      <c r="BP154" s="20"/>
+      <c r="BQ154" s="20"/>
+      <c r="BR154" s="20"/>
+      <c r="BS154" s="20"/>
+      <c r="BT154" s="20"/>
+      <c r="BU154" s="20"/>
+      <c r="BV154" s="20"/>
+      <c r="BW154" s="20"/>
+      <c r="BX154" s="20"/>
+      <c r="BY154" s="20"/>
+      <c r="BZ154" s="20"/>
+      <c r="CA154" s="20"/>
+      <c r="CB154" s="20"/>
+      <c r="CC154" s="20"/>
+      <c r="CD154" s="20"/>
+      <c r="CE154" s="20"/>
+      <c r="CF154" s="20"/>
+      <c r="CG154" s="20"/>
+      <c r="CH154" s="20"/>
+      <c r="CI154" s="20"/>
+      <c r="CJ154" s="20"/>
+      <c r="CK154" s="20"/>
+      <c r="CL154" s="20"/>
+      <c r="CM154" s="20"/>
+      <c r="CN154" s="20"/>
+      <c r="CO154" s="20"/>
+      <c r="CP154" s="20"/>
+      <c r="CQ154" s="20"/>
+      <c r="CR154" s="20"/>
+      <c r="CS154" s="20"/>
+      <c r="CT154" s="20"/>
+      <c r="CU154" s="20"/>
+      <c r="CV154" s="20"/>
+      <c r="CW154" s="20"/>
+      <c r="CX154" s="20"/>
+      <c r="CY154" s="20"/>
+      <c r="CZ154" s="20"/>
+      <c r="DA154" s="20"/>
+      <c r="DB154" s="20"/>
+      <c r="DC154" s="20"/>
+      <c r="DD154" s="20"/>
+      <c r="DE154" s="20"/>
+      <c r="DF154" s="20"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:110">
+      <c r="A155" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="20"/>
+      <c r="O155" s="20"/>
+      <c r="P155" s="20"/>
+      <c r="Q155" s="20"/>
+      <c r="R155" s="20"/>
+      <c r="S155" s="20"/>
+      <c r="T155" s="20"/>
+      <c r="U155" s="20"/>
+      <c r="V155" s="20"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
+      <c r="AA155" s="20"/>
+      <c r="AB155" s="20"/>
+      <c r="AC155" s="20"/>
+      <c r="AD155" s="20"/>
+      <c r="AE155" s="20"/>
+      <c r="AF155" s="20"/>
+      <c r="AG155" s="20"/>
+      <c r="AH155" s="20"/>
+      <c r="AI155" s="20"/>
+      <c r="AJ155" s="20"/>
+      <c r="AK155" s="20"/>
+      <c r="AL155" s="20"/>
+      <c r="AM155" s="20"/>
+      <c r="AN155" s="20"/>
+      <c r="AO155" s="20"/>
+      <c r="AP155" s="20"/>
+      <c r="AQ155" s="20"/>
+      <c r="AR155" s="20"/>
+      <c r="AS155" s="20"/>
+      <c r="AT155" s="20"/>
+      <c r="AU155" s="20"/>
+      <c r="AV155" s="20"/>
+      <c r="AW155" s="20"/>
+      <c r="AX155" s="20"/>
+      <c r="AY155" s="20"/>
+      <c r="AZ155" s="20"/>
+      <c r="BA155" s="20"/>
+      <c r="BB155" s="20"/>
+      <c r="BC155" s="20"/>
+      <c r="BD155" s="20"/>
+      <c r="BE155" s="20"/>
+      <c r="BF155" s="20"/>
+      <c r="BG155" s="20"/>
+      <c r="BH155" s="20"/>
+      <c r="BI155" s="20"/>
+      <c r="BJ155" s="20"/>
+      <c r="BK155" s="20"/>
+      <c r="BL155" s="20"/>
+      <c r="BM155" s="20"/>
+      <c r="BN155" s="20"/>
+      <c r="BO155" s="20"/>
+      <c r="BP155" s="20"/>
+      <c r="BQ155" s="20"/>
+      <c r="BR155" s="20"/>
+      <c r="BS155" s="20"/>
+      <c r="BT155" s="20"/>
+      <c r="BU155" s="20"/>
+      <c r="BV155" s="20"/>
+      <c r="BW155" s="20"/>
+      <c r="BX155" s="20"/>
+      <c r="BY155" s="20"/>
+      <c r="BZ155" s="20"/>
+      <c r="CA155" s="20"/>
+      <c r="CB155" s="20"/>
+      <c r="CC155" s="20"/>
+      <c r="CD155" s="20"/>
+      <c r="CE155" s="20"/>
+      <c r="CF155" s="20"/>
+      <c r="CG155" s="20"/>
+      <c r="CH155" s="20"/>
+      <c r="CI155" s="20"/>
+      <c r="CJ155" s="20"/>
+      <c r="CK155" s="20"/>
+      <c r="CL155" s="20"/>
+      <c r="CM155" s="20"/>
+      <c r="CN155" s="20"/>
+      <c r="CO155" s="20"/>
+      <c r="CP155" s="20"/>
+      <c r="CQ155" s="20"/>
+      <c r="CR155" s="20"/>
+      <c r="CS155" s="20"/>
+      <c r="CT155" s="20"/>
+      <c r="CU155" s="20"/>
+      <c r="CV155" s="20"/>
+      <c r="CW155" s="20"/>
+      <c r="CX155" s="20"/>
+      <c r="CY155" s="20"/>
+      <c r="CZ155" s="20"/>
+      <c r="DA155" s="20"/>
+      <c r="DB155" s="20"/>
+      <c r="DC155" s="20"/>
+      <c r="DD155" s="20"/>
+      <c r="DE155" s="20"/>
+      <c r="DF155" s="20"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:110">
+      <c r="A156" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+      <c r="Z156" s="20"/>
+      <c r="AA156" s="20"/>
+      <c r="AB156" s="20"/>
+      <c r="AC156" s="20"/>
+      <c r="AD156" s="20"/>
+      <c r="AE156" s="20"/>
+      <c r="AF156" s="20"/>
+      <c r="AG156" s="20"/>
+      <c r="AH156" s="20"/>
+      <c r="AI156" s="20"/>
+      <c r="AJ156" s="20"/>
+      <c r="AK156" s="20"/>
+      <c r="AL156" s="20"/>
+      <c r="AM156" s="20"/>
+      <c r="AN156" s="20"/>
+      <c r="AO156" s="20"/>
+      <c r="AP156" s="20"/>
+      <c r="AQ156" s="20"/>
+      <c r="AR156" s="20"/>
+      <c r="AS156" s="20"/>
+      <c r="AT156" s="20"/>
+      <c r="AU156" s="20"/>
+      <c r="AV156" s="20"/>
+      <c r="AW156" s="20"/>
+      <c r="AX156" s="20"/>
+      <c r="AY156" s="20"/>
+      <c r="AZ156" s="20"/>
+      <c r="BA156" s="20"/>
+      <c r="BB156" s="20"/>
+      <c r="BC156" s="20"/>
+      <c r="BD156" s="20"/>
+      <c r="BE156" s="20"/>
+      <c r="BF156" s="20"/>
+      <c r="BG156" s="20"/>
+      <c r="BH156" s="20"/>
+      <c r="BI156" s="20"/>
+      <c r="BJ156" s="20"/>
+      <c r="BK156" s="20"/>
+      <c r="BL156" s="20"/>
+      <c r="BM156" s="20"/>
+      <c r="BN156" s="20"/>
+      <c r="BO156" s="20"/>
+      <c r="BP156" s="20"/>
+      <c r="BQ156" s="20"/>
+      <c r="BR156" s="20"/>
+      <c r="BS156" s="20"/>
+      <c r="BT156" s="20"/>
+      <c r="BU156" s="20"/>
+      <c r="BV156" s="20"/>
+      <c r="BW156" s="20"/>
+      <c r="BX156" s="20"/>
+      <c r="BY156" s="20"/>
+      <c r="BZ156" s="20"/>
+      <c r="CA156" s="20"/>
+      <c r="CB156" s="20"/>
+      <c r="CC156" s="20"/>
+      <c r="CD156" s="20"/>
+      <c r="CE156" s="20"/>
+      <c r="CF156" s="20"/>
+      <c r="CG156" s="20"/>
+      <c r="CH156" s="20"/>
+      <c r="CI156" s="20"/>
+      <c r="CJ156" s="20"/>
+      <c r="CK156" s="20"/>
+      <c r="CL156" s="20"/>
+      <c r="CM156" s="20"/>
+      <c r="CN156" s="20"/>
+      <c r="CO156" s="20"/>
+      <c r="CP156" s="20"/>
+      <c r="CQ156" s="20"/>
+      <c r="CR156" s="20"/>
+      <c r="CS156" s="20"/>
+      <c r="CT156" s="20"/>
+      <c r="CU156" s="20"/>
+      <c r="CV156" s="20"/>
+      <c r="CW156" s="20"/>
+      <c r="CX156" s="20"/>
+      <c r="CY156" s="20"/>
+      <c r="CZ156" s="20"/>
+      <c r="DA156" s="20"/>
+      <c r="DB156" s="20"/>
+      <c r="DC156" s="20"/>
+      <c r="DD156" s="20"/>
+      <c r="DE156" s="20"/>
+      <c r="DF156" s="20"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:110">
+      <c r="A157" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="20"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="20"/>
+      <c r="T157" s="20"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="20"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="20"/>
+      <c r="AA157" s="20"/>
+      <c r="AB157" s="20"/>
+      <c r="AC157" s="20"/>
+      <c r="AD157" s="20"/>
+      <c r="AE157" s="20"/>
+      <c r="AF157" s="20"/>
+      <c r="AG157" s="20"/>
+      <c r="AH157" s="20"/>
+      <c r="AI157" s="20"/>
+      <c r="AJ157" s="20"/>
+      <c r="AK157" s="20"/>
+      <c r="AL157" s="20"/>
+      <c r="AM157" s="20"/>
+      <c r="AN157" s="20"/>
+      <c r="AO157" s="20"/>
+      <c r="AP157" s="20"/>
+      <c r="AQ157" s="20"/>
+      <c r="AR157" s="20"/>
+      <c r="AS157" s="20"/>
+      <c r="AT157" s="20"/>
+      <c r="AU157" s="20"/>
+      <c r="AV157" s="20"/>
+      <c r="AW157" s="20"/>
+      <c r="AX157" s="20"/>
+      <c r="AY157" s="20"/>
+      <c r="AZ157" s="20"/>
+      <c r="BA157" s="20"/>
+      <c r="BB157" s="20"/>
+      <c r="BC157" s="20"/>
+      <c r="BD157" s="20"/>
+      <c r="BE157" s="20"/>
+      <c r="BF157" s="20"/>
+      <c r="BG157" s="20"/>
+      <c r="BH157" s="20"/>
+      <c r="BI157" s="20"/>
+      <c r="BJ157" s="20"/>
+      <c r="BK157" s="20"/>
+      <c r="BL157" s="20"/>
+      <c r="BM157" s="20"/>
+      <c r="BN157" s="20"/>
+      <c r="BO157" s="20"/>
+      <c r="BP157" s="20"/>
+      <c r="BQ157" s="20"/>
+      <c r="BR157" s="20"/>
+      <c r="BS157" s="20"/>
+      <c r="BT157" s="20"/>
+      <c r="BU157" s="20"/>
+      <c r="BV157" s="20"/>
+      <c r="BW157" s="20"/>
+      <c r="BX157" s="20"/>
+      <c r="BY157" s="20"/>
+      <c r="BZ157" s="20"/>
+      <c r="CA157" s="20"/>
+      <c r="CB157" s="20"/>
+      <c r="CC157" s="20"/>
+      <c r="CD157" s="20"/>
+      <c r="CE157" s="20"/>
+      <c r="CF157" s="20"/>
+      <c r="CG157" s="20"/>
+      <c r="CH157" s="20"/>
+      <c r="CI157" s="20"/>
+      <c r="CJ157" s="20"/>
+      <c r="CK157" s="20"/>
+      <c r="CL157" s="20"/>
+      <c r="CM157" s="20"/>
+      <c r="CN157" s="20"/>
+      <c r="CO157" s="20"/>
+      <c r="CP157" s="20"/>
+      <c r="CQ157" s="20"/>
+      <c r="CR157" s="20"/>
+      <c r="CS157" s="20"/>
+      <c r="CT157" s="20"/>
+      <c r="CU157" s="20"/>
+      <c r="CV157" s="20"/>
+      <c r="CW157" s="20"/>
+      <c r="CX157" s="20"/>
+      <c r="CY157" s="20"/>
+      <c r="CZ157" s="20"/>
+      <c r="DA157" s="20"/>
+      <c r="DB157" s="20"/>
+      <c r="DC157" s="20"/>
+      <c r="DD157" s="20"/>
+      <c r="DE157" s="20"/>
+      <c r="DF157" s="20"/>
+    </row>
     <row r="158" customHeight="1"/>
     <row r="159" customHeight="1"/>
     <row r="160" customHeight="1"/>
@@ -3836,93 +4242,93 @@
     <row r="184" customHeight="1"/>
     <row r="185" customHeight="1"/>
     <row r="206" spans="21:23">
-      <c r="U206" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="V206" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="W206" s="19" t="s">
-        <v>44</v>
+      <c r="U206" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="V206" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W206" s="23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="21:23">
-      <c r="U207" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="V207" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="W207" s="21" t="s">
-        <v>47</v>
+      <c r="U207" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="V207" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W207" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="208" spans="21:23">
-      <c r="U208" s="22"/>
-      <c r="V208" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="W208" s="21" t="s">
-        <v>49</v>
+      <c r="U208" s="26"/>
+      <c r="V208" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="W208" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="209" spans="21:23">
-      <c r="U209" s="22"/>
-      <c r="V209" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="W209" s="21" t="s">
-        <v>51</v>
+      <c r="U209" s="26"/>
+      <c r="V209" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="W209" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="210" spans="21:23">
-      <c r="U210" s="22"/>
-      <c r="V210" s="23"/>
-      <c r="W210" s="21" t="s">
-        <v>52</v>
+      <c r="U210" s="26"/>
+      <c r="V210" s="27"/>
+      <c r="W210" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="21:23">
-      <c r="U211" s="22"/>
-      <c r="V211" s="23"/>
-      <c r="W211" s="21" t="s">
-        <v>53</v>
+      <c r="U211" s="26"/>
+      <c r="V211" s="27"/>
+      <c r="W211" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="232" spans="21:23">
-      <c r="U232" s="24"/>
-      <c r="V232" s="24"/>
-      <c r="W232" s="24"/>
+      <c r="U232" s="28"/>
+      <c r="V232" s="28"/>
+      <c r="W232" s="28"/>
     </row>
     <row r="233" spans="21:23">
-      <c r="U233" s="25"/>
-      <c r="V233" s="25"/>
-      <c r="W233" s="25"/>
+      <c r="U233" s="29"/>
+      <c r="V233" s="29"/>
+      <c r="W233" s="29"/>
     </row>
     <row r="234" spans="21:23">
-      <c r="U234" s="26"/>
-      <c r="V234" s="25"/>
-      <c r="W234" s="25"/>
+      <c r="U234" s="30"/>
+      <c r="V234" s="29"/>
+      <c r="W234" s="29"/>
     </row>
     <row r="235" spans="21:23">
-      <c r="U235" s="26"/>
-      <c r="V235" s="25"/>
-      <c r="W235" s="25"/>
+      <c r="U235" s="30"/>
+      <c r="V235" s="29"/>
+      <c r="W235" s="29"/>
     </row>
     <row r="236" spans="21:23">
-      <c r="U236" s="26"/>
-      <c r="V236" s="27"/>
-      <c r="W236" s="25"/>
+      <c r="U236" s="30"/>
+      <c r="V236" s="31"/>
+      <c r="W236" s="29"/>
     </row>
     <row r="237" spans="21:23">
-      <c r="U237" s="26"/>
-      <c r="V237" s="27"/>
-      <c r="W237" s="25"/>
+      <c r="U237" s="30"/>
+      <c r="V237" s="31"/>
+      <c r="W237" s="29"/>
     </row>
     <row r="238" spans="21:23">
-      <c r="U238" s="28"/>
-      <c r="V238" s="29"/>
-      <c r="W238" s="30"/>
+      <c r="U238" s="32"/>
+      <c r="V238" s="33"/>
+      <c r="W238" s="34"/>
     </row>
     <row r="295" spans="33:110">
       <c r="AG295" s="2" t="s">
@@ -3932,248 +4338,253 @@
         <v>1</v>
       </c>
       <c r="AL295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AM295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AO295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AP295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AQ295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AS295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AT295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AU295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AV295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AW295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AX295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AY295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AZ295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BA295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BB295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BC295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BD295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BE295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BF295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BG295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BH295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BI295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BJ295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BK295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BL295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BM295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BN295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BO295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BP295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BQ295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BR295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BS295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BT295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BU295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BV295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BW295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BX295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BY295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BZ295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CA295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CB295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CC295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CD295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CE295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CF295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CG295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CH295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CI295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CJ295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CK295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CL295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CM295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CN295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CO295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CP295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CQ295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CR295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CS295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CT295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CU295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CV295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CW295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CX295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CY295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CZ295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="DA295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="DB295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="DC295" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="DD295" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="DE295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="DF295" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B46" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B51" r:id="rId2" display="daya123@daya.in  " tooltip="mailto:daya123@daya.in"/>
-    <hyperlink ref="B63" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B67" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B71" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B75" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B79" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B83" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B88" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B93" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B46" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B51" r:id="rId2" display="daya123@daya.in&#10;&#10;" tooltip="mailto:daya123@daya.in"/>
+    <hyperlink ref="B63" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B67" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B71" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B75" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B79" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B83" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B88" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B93" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
     <hyperlink ref="B97" r:id="rId3" display="vinothtest@gmail.com" tooltip="mailto:vinothtest@gmail.com"/>
     <hyperlink ref="B102" r:id="rId3" display="vinothtest@gmail.com" tooltip="mailto:vinothtest@gmail.com"/>
     <hyperlink ref="B106" r:id="rId3" display="vinothtest@gmail.com" tooltip="mailto:vinothtest@gmail.com"/>
     <hyperlink ref="B110" r:id="rId3" display="vinothtest@gmail.com" tooltip="mailto:vinothtest@gmail.com"/>
-    <hyperlink ref="B114" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B118" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B122" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B126" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B130" r:id="rId2" display="daya123@daya.in  "/>
-    <hyperlink ref="B134" r:id="rId2" display="daya123@daya.in  "/>
+    <hyperlink ref="B114" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B118" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B122" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B126" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B130" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B134" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B139" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B143" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B147" r:id="rId2" display="daya123@daya.in&#10;&#10;"/>
+    <hyperlink ref="B152" r:id="rId2" display="daya123@daya.in&#10;&#10;" tooltip="mailto:daya123@daya.in"/>
+    <hyperlink ref="B157" r:id="rId2" display="daya123@daya.in&#10;&#10;" tooltip="mailto:daya123@daya.in"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4184,7 +4595,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="A4" sqref="A2:C4"/>
@@ -4192,1962 +4603,1962 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="143.20703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.58984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.2890625" collapsed="true"/>
+    <col min="1" max="1" width="143.209523809524" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.59047619047619" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C184" s="8" t="s">
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="38" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="39" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B251" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="41" t="s">
+      <c r="C251" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="42" t="s">
+      <c r="B252" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="43" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="44" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="45" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="46" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="47" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="48" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="49" t="s">
+    <row r="286" spans="1:1">
+      <c r="A286" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="50" t="s">
+    <row r="287" spans="1:1">
+      <c r="A287" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="51" t="s">
+    <row r="288" spans="1:3">
+      <c r="A288" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="52" t="s">
+      <c r="B288" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C288" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="54" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="55" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="56" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="64" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="66" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="78" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="88" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="91" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="92" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="93" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="94" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="95" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="96" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="98" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="99" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="100" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="B251" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="C251" s="109" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="B252" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="C252" s="115" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="B253" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C253" s="117" t="s">
+    <row r="296" spans="1:1">
+      <c r="A296" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="B254" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="C254" s="119" t="s">
+    <row r="297" spans="1:1">
+      <c r="A297" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="105" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="B257" s="112" t="s">
-        <v>81</v>
-      </c>
-      <c r="C257" s="113" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="B258" s="137" t="s">
+    <row r="298" spans="1:3">
+      <c r="A298" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C298" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C258" s="138" t="s">
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="121" t="s">
-        <v>154</v>
-      </c>
-      <c r="B259" s="139" t="s">
-        <v>81</v>
-      </c>
-      <c r="C259" s="140" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="B260" s="141" t="s">
-        <v>81</v>
-      </c>
-      <c r="C260" s="142" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="B261" s="143" t="s">
-        <v>94</v>
-      </c>
-      <c r="C261" s="144" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="B262" s="151" t="s">
-        <v>94</v>
-      </c>
-      <c r="C262" s="152" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="B264" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="C264" s="150" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="127" t="s">
-        <v>160</v>
-      </c>
-      <c r="B265" s="153" t="s">
-        <v>94</v>
-      </c>
-      <c r="C265" s="154" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="B266" s="155" t="s">
-        <v>81</v>
-      </c>
-      <c r="C266" s="156" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="B267" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="C267" s="158" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="B269" s="159" t="s">
-        <v>81</v>
-      </c>
-      <c r="C269" s="160" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="132" t="s">
-        <v>164</v>
-      </c>
-      <c r="B270" s="166" t="s">
-        <v>81</v>
-      </c>
-      <c r="C270" s="167" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="133" t="s">
-        <v>165</v>
-      </c>
-      <c r="B271" s="161" t="s">
-        <v>94</v>
-      </c>
-      <c r="C271" s="162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="B272" s="147" t="s">
-        <v>94</v>
-      </c>
-      <c r="C272" s="148" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="163" t="s">
-        <v>188</v>
-      </c>
-      <c r="B273" s="164" t="s">
-        <v>81</v>
-      </c>
-      <c r="C273" s="165" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="168" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="169" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="170" t="s">
+    <row r="317" spans="1:1">
+      <c r="A317" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="171" t="s">
+    <row r="318" spans="1:3">
+      <c r="A318" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="172" t="s">
+      <c r="B318" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C318" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B278" s="173" t="s">
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C278" s="174" t="s">
+      <c r="B319" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C319" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="175" t="s">
+    <row r="320" spans="1:3">
+      <c r="A320" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="176" t="s">
+      <c r="B320" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C320" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="177" t="s">
+    <row r="321" spans="1:3">
+      <c r="A321" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="178" t="s">
+      <c r="B321" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C321" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="179" t="s">
+    <row r="322" spans="1:3">
+      <c r="A322" s="8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="180" t="s">
+      <c r="B322" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C322" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="181" t="s">
+    <row r="323" spans="1:3">
+      <c r="A323" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="182" t="s">
+      <c r="B323" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C323" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="183" t="s">
+    <row r="324" spans="1:3">
+      <c r="A324" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="184" t="s">
+      <c r="B324" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C324" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B288" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="C288" s="186" t="s">
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="187" t="s">
+    <row r="326" spans="1:3">
+      <c r="A326" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="188" t="s">
+      <c r="B326" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C326" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="189" t="s">
+    <row r="327" spans="1:1">
+      <c r="A327" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="190" t="s">
+    <row r="328" spans="1:1">
+      <c r="A328" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="191" t="s">
+    <row r="329" spans="1:1">
+      <c r="A329" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="192" t="s">
+    <row r="330" spans="1:1">
+      <c r="A330" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="193" t="s">
+    <row r="331" spans="1:1">
+      <c r="A331" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="194" t="s">
+    <row r="332" spans="1:1">
+      <c r="A332" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="195" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="8" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="196" t="s">
-        <v>218</v>
-      </c>
-      <c r="B298" s="197" t="s">
-        <v>196</v>
-      </c>
-      <c r="C298" s="198" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="199" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="200" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="201" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="202" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="203" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="204" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="205" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="206" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="207" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="208" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="209" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="210" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="211" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="212" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="213" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="214" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="215" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="216" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="217" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="B318" s="226" t="s">
-        <v>81</v>
-      </c>
-      <c r="C318" s="227" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="219" t="s">
-        <v>240</v>
-      </c>
-      <c r="B319" s="228" t="s">
-        <v>81</v>
-      </c>
-      <c r="C319" s="229" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="220" t="s">
-        <v>241</v>
-      </c>
-      <c r="B320" s="230" t="s">
-        <v>81</v>
-      </c>
-      <c r="C320" s="231" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="221" t="s">
-        <v>242</v>
-      </c>
-      <c r="B321" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="C321" s="233" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="222" t="s">
-        <v>243</v>
-      </c>
-      <c r="B322" s="234" t="s">
-        <v>81</v>
-      </c>
-      <c r="C322" s="235" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="223" t="s">
-        <v>244</v>
-      </c>
-      <c r="B323" s="236" t="s">
-        <v>81</v>
-      </c>
-      <c r="C323" s="237" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="224" t="s">
-        <v>245</v>
-      </c>
-      <c r="B324" s="238" t="s">
-        <v>81</v>
-      </c>
-      <c r="C324" s="239" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="225" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="240" t="s">
-        <v>254</v>
-      </c>
-      <c r="B326" s="242" t="s">
-        <v>81</v>
-      </c>
-      <c r="C326" s="243" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="241" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="244" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="245" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="246" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="247" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="248" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="249" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6167,45 +6578,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="5.28571428571429" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28571428571429" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6225,185 +6636,185 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.8571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.4285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="19.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>123</v>
+        <v>234</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>127</v>
+        <v>238</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>127</v>
+        <v>242</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="4:5">
       <c r="D6" s="4" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="4" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" ht="57" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:2">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:2">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
